--- a/test.xlsx
+++ b/test.xlsx
@@ -8,59 +8,61 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\newpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27306C4D-331F-4412-9806-9161B4F23EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C036988-4CC7-454B-A9D1-E347FA5CE9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,88 +388,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>